--- a/results/time_study.xlsx
+++ b/results/time_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/austin/git/AndroidTAEnvironment/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B754752C-FE29-DA40-A855-5245D863646C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612A43DB-3F05-914F-9A45-A9098085C9D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37320" yWindow="-3140" windowWidth="37320" windowHeight="21140" activeTab="1" xr2:uid="{20A15AD3-4F48-D74E-B97C-54003137F9B0}"/>
+    <workbookView xWindow="-32600" yWindow="820" windowWidth="45140" windowHeight="17540" xr2:uid="{20A15AD3-4F48-D74E-B97C-54003137F9B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sum of Times" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="437">
   <si>
     <t>Total Running Time</t>
   </si>
@@ -1342,6 +1342,9 @@
   </si>
   <si>
     <t>median</t>
+  </si>
+  <si>
+    <t>ø</t>
   </si>
 </sst>
 </file>
@@ -1792,16 +1795,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D237945B-B7C5-214E-B4FB-B8BDC5215E53}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1953,8 +1957,8 @@
         <v>3</v>
       </c>
       <c r="H12">
-        <f>AVERAGE(B9:D9,B18:D18,B27:D27)/1000/60/60</f>
-        <v>4129.8482194640264</v>
+        <f>SUM(B9*5,C9*5,D9*5,B18*5,C18*5,D18*5,B27*3,C27*3,D27*3)/39/1000/60/60</f>
+        <v>3986.4083812212211</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2193,6 +2197,29 @@
       <c r="E27">
         <f>SUM(E22:E26)/1000/60/60</f>
         <v>15186.621504126761</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <f>SUM(B9,B18,B27)</f>
+        <v>44666944214.859779</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:D30" si="6">SUM(C9,C18,C27)</f>
+        <v>43344942309.974762</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="6"/>
+        <v>45795195785.799904</v>
+      </c>
+      <c r="E30">
+        <f>AVERAGE(B30:D30)/1000/60/60/24</f>
+        <v>516.23102743300331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -2209,7 +2236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D137A3D1-3843-8943-83D5-F393420780CE}">
   <dimension ref="A1:J783"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
